--- a/sample_ext_quibit_062024.xlsx
+++ b/sample_ext_quibit_062024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmantegna/Documents/WDFWmussels_epigenetics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D0575F-D5D9-6947-903A-4DDD52231E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B96EC9-B65C-5C48-A8A5-1A08BCD42633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36200" yWindow="880" windowWidth="27660" windowHeight="16940" activeTab="3" xr2:uid="{C950268E-5272-264D-BBD9-8DA1D026AA9E}"/>
+    <workbookView xWindow="36200" yWindow="880" windowWidth="27660" windowHeight="16940" xr2:uid="{C950268E-5272-264D-BBD9-8DA1D026AA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zymo &amp; Qubit Protocols" sheetId="3" r:id="rId1"/>
@@ -123,10 +123,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,10 +169,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -182,8 +191,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,23 +529,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5493CC-5681-4C4F-94E4-043E23F2D763}">
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{781D72E0-9DF4-E947-9115-FFD6E8588FAD}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{87217D45-C01E-BE4F-B2AB-471C3D9D375B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2374,7 +2389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC800A9-FAD5-2846-B83C-B1922465A30C}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
